--- a/db/数据库设计.xlsx
+++ b/db/数据库设计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\project\java\projectManagementSystem\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\project\java\projectManagementSystem\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED62FC37-92C6-499E-9621-284720104667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C9CF64-5297-4AB4-8B74-5656DFED92A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,9 @@
     <sheet name="项目内容表" sheetId="9" r:id="rId9"/>
     <sheet name="项目文档表" sheetId="10" r:id="rId10"/>
     <sheet name="财务表" sheetId="11" r:id="rId11"/>
+    <sheet name="类型数据" sheetId="12" r:id="rId12"/>
+    <sheet name="菜单表数据" sheetId="13" r:id="rId13"/>
+    <sheet name="菜单角色" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="209">
   <si>
     <t>项目管理软件数据库设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,6 +582,256 @@
   </si>
   <si>
     <t>尾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业卫生评价</t>
+  </si>
+  <si>
+    <t>能评</t>
+  </si>
+  <si>
+    <t>稳评</t>
+  </si>
+  <si>
+    <t>检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水土保持</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>立项类</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>环评登记表</t>
+  </si>
+  <si>
+    <t>环评报告表</t>
+  </si>
+  <si>
+    <t>环评报告书</t>
+  </si>
+  <si>
+    <t>环评竣工验收</t>
+  </si>
+  <si>
+    <t>环境应急预案</t>
+  </si>
+  <si>
+    <t>安全预评价</t>
+  </si>
+  <si>
+    <t>安全现状评价</t>
+  </si>
+  <si>
+    <t>安全设计专篇</t>
+  </si>
+  <si>
+    <t>安全竣工验收</t>
+  </si>
+  <si>
+    <t>安全应急预案</t>
+  </si>
+  <si>
+    <t>职业卫生预评价</t>
+  </si>
+  <si>
+    <t>职业卫生现状评价</t>
+  </si>
+  <si>
+    <t>职业卫生设计专篇</t>
+  </si>
+  <si>
+    <t>职业卫生竣工验收</t>
+  </si>
+  <si>
+    <t>节能承诺表</t>
+  </si>
+  <si>
+    <t>节能报告</t>
+  </si>
+  <si>
+    <t>土地稳评</t>
+  </si>
+  <si>
+    <t>项目稳评</t>
+  </si>
+  <si>
+    <t>环境检测</t>
+  </si>
+  <si>
+    <t>防雷检测</t>
+  </si>
+  <si>
+    <t>职业卫生检测</t>
+  </si>
+  <si>
+    <t>CCTV水检测</t>
+  </si>
+  <si>
+    <t>CCTV测绘</t>
+  </si>
+  <si>
+    <t>水土保持报告表</t>
+  </si>
+  <si>
+    <t>水土保持报告书</t>
+  </si>
+  <si>
+    <t>水土保持监测</t>
+  </si>
+  <si>
+    <t>可行性研究报告</t>
+  </si>
+  <si>
+    <t>立项</t>
+  </si>
+  <si>
+    <t>系统权限</t>
+  </si>
+  <si>
+    <t>数据导出</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>项目维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/userrole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/Userrole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pro/uphold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pro/manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pro/document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pro/Uphold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pro/Manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pro/Document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/export/money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/export/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/export/Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/export/Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Icon type="md-albums" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Icon type="md-analytics" /&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +839,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,8 +854,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +872,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,6 +964,23 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -700,9 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,7 +1273,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1301,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1026,7 +1312,7 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1321,7 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1330,7 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1339,7 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1064,7 +1350,7 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1359,7 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1368,7 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1091,7 +1377,7 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1100,7 +1386,7 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>109</v>
       </c>
@@ -1121,7 +1407,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1274,6 +1560,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1282,7 +1569,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1527,15 +1814,1494 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C301111C-0DD2-43E0-ABA3-A8F2B04604B5}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="16.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>19</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>21</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>22</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>26</v>
+      </c>
+      <c r="B41" s="2">
+        <v>8</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>27</v>
+      </c>
+      <c r="B42" s="2">
+        <v>9</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>28</v>
+      </c>
+      <c r="B43" s="2">
+        <v>10</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>29</v>
+      </c>
+      <c r="B44" s="2">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9593B3F3-BB9E-431C-87F9-08D36669517E}">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="17.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="3">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="3">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="3">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="3">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="3">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="3">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="3">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DC95FE-1D5B-4B08-B434-B951F92907BD}">
+  <dimension ref="A2:J33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E3C539-ACEE-409A-8813-3E394045270C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1621,28 +3387,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1651,13 +3419,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1666,10 +3434,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -1681,10 +3449,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -1696,19 +3464,35 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1717,7 +3501,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1848,6 +3632,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1856,7 +3641,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E14"/>
+      <selection activeCell="C3" sqref="C3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2071,6 +3856,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2079,7 +3865,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E8"/>
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2202,6 +3988,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2209,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0AC3A2-0A35-4CEC-B670-97433DB9B852}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2331,6 +4118,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2339,7 +4127,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2416,7 +4204,7 @@
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -2431,7 +4219,7 @@
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>35</v>
@@ -2446,7 +4234,7 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
@@ -2461,7 +4249,7 @@
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>37</v>
@@ -2477,6 +4265,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2485,18 +4274,18 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E12"/>
+      <selection activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="12.5" style="8"/>
-    <col min="5" max="5" width="23.625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="12.5" style="8"/>
+    <col min="1" max="4" width="12.5" style="5"/>
+    <col min="5" max="5" width="23.625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2673,7 +4462,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E16"/>
+      <selection activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2920,5 +4709,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>